--- a/PII_QA2.xlsx
+++ b/PII_QA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727993738a0e3aae/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{ECCE2458-F43A-4DC0-9269-1637C7E403C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F0D53011-3F4E-4890-81BA-8E4D61D63871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A9CB467F-BB01-4803-B010-A52DE78FE985}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6445" uniqueCount="3800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6475" uniqueCount="3815">
   <si>
     <t>大分類</t>
     <rPh sb="0" eb="3">
@@ -10901,15 +10901,6 @@
     <t>メールアドレス、顔写真</t>
   </si>
   <si>
-    <t>**要配慮個人情報とは？**
-個人情報の中には、他人に公開されることで、本人が不当な差別や偏見などの不利益を被らないようにその取扱いに特に配慮すべき情報があります。例えば、次のような個人情報は、「要配慮個人情報」として、取扱いに特に配慮しなければいけません。
----
-&lt;mark&gt;人種、信条、社会的身分、病歴、犯罪の経歴、犯罪により被害を被った事実のほか、身体障害・知的障害・精神障害などの障害があること、医師等により行われた健康診断その他の検査の結果、保健指導、診療・調剤情報、本人を被疑者又は被告人として逮捕等の刑事事件に関する手続が行われたこと、非行・保護処分等の少年の保護事件に関する手続が行われたことの記述などが含まれる個人情報&lt;/mark&gt;
----
-このような「要配慮個人情報」の取得には、原則としてあらかじめ本人の同意が必要です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要配慮個人情報とは、本人が________や偏見などの不利益を被らないように特に配慮すべき情報である。</t>
   </si>
   <si>
@@ -10950,17 +10941,6 @@
   </si>
   <si>
     <t>特別な理由</t>
-  </si>
-  <si>
-    <t>**「個人情報データベース等」、「個人データ」、「保有個人データ」とは？**
-個人情報保護法には、「個人情報」という用語のほか、「個人情報データベース等」「個人データ」「保有個人データ」という似た用語が登場します。ここでは、それぞれの用語の定義について説明します。
-（1）個人情報データベース等
-「個人情報データベース等」とは、特定の個人情報を検索することができるように体系的に構成された、個人情報を含む情報の集合物をいいます。コンピュータを用いて検索できるように体系的に構成したものや、紙面で処理した個人情報を一定の規則に従って整理・分類し、簡単に検索できるように目次や索引を付けているものが該当します。例えば、五十音順で整理された名簿などがこれに当たります。
-（2）個人データ
-「個人情報データベース等」を構成する個人情報を「個人データ」といいます。例えば、名簿を構成する氏名・誕生日・住所・電話番号などの個人情報がこれに当たります。
-（3）保有個人データ
-個人データのうち、個人情報取扱事業者が本人から請求される開示・訂正・削除などに応じることができる権限を有するものを「保有個人データ」といいます。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>特定の個人情報を検索できるように体系的に構成された、個人情報を含む情報の集合物を「________」という。</t>
@@ -11665,17 +11645,6 @@
   <si>
     <t xml:space="preserve">要配慮個人情報とはなんですか？
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「個人情報データベース等」、「個人データ」、「保有個人データ」とはなんですか？
-個人情報保護法には、「個人情報」という用語のほか、「個人情報データベース等」「個人データ」「保有個人データ」という似た用語が登場します。ここでは、それぞれの用語の定義について説明します。
-（1）個人情報データベース等
-「個人情報データベース等」とは、特定の個人情報を検索することができるように体系的に構成された、個人情報を含む情報の集合物をいいます。コンピュータを用いて検索できるように体系的に構成したものや、紙面で処理した個人情報を一定の規則に従って整理・分類し、簡単に検索できるように目次や索引を付けているものが該当します。例えば、五十音順で整理された名簿などがこれに当たります。
-（2）個人データ
-「個人情報データベース等」を構成する個人情報を「個人データ」といいます。例えば、名簿を構成する氏名・誕生日・住所・電話番号などの個人情報がこれに当たります。
-（3）保有個人データ
-個人データのうち、個人情報取扱事業者が本人から請求される開示・訂正・削除などに応じることができる権限を有するものを「保有個人データ」といいます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -12192,59 +12161,205 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①個人情報の取得・利用のルールです。
+    <t>①個人情報の取得・利用のルールについて教えてください。</t>
+    <rPh sb="19" eb="20">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a-id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q-id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「個人情報データベース等」、「個人データ」、「保有個人データ」とはなんですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「個人情報データベース等」、「個人データ」、「保有個人データ」とは？
+個人情報保護法には、「個人情報」という用語のほか、「個人情報データベース等」「個人データ」「保有個人データ」という似た用語が登場します。ここでは、それぞれの用語の定義について説明します。
+（1）個人情報データベース等
+「個人情報データベース等」とは、特定の個人情報を検索することができるように体系的に構成された、個人情報を含む情報の集合物をいいます。コンピュータを用いて検索できるように体系的に構成したものや、紙面で処理した個人情報を一定の規則に従って整理・分類し、簡単に検索できるように目次や索引を付けているものが該当します。例えば、五十音順で整理された名簿などがこれに当たります。
+（2）個人データ
+「個人情報データベース等」を構成する個人情報を「個人データ」といいます。例えば、名簿を構成する氏名・誕生日・住所・電話番号などの個人情報がこれに当たります。
+（3）保有個人データ
+個人データのうち、個人情報取扱事業者が本人から請求される開示・訂正・削除などに応じることができる権限を有するものを「保有個人データ」といいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要配慮個人情報とは？
+個人情報の中には、他人に公開されることで、本人が不当な差別や偏見などの不利益を被らないようにその取扱いに特に配慮すべき情報があります。例えば、次のような個人情報は、「要配慮個人情報」として、取扱いに特に配慮しなければいけません。
+---
+&lt;mark&gt;人種、信条、社会的身分、病歴、犯罪の経歴、犯罪により被害を被った事実のほか、身体障害・知的障害・精神障害などの障害があること、医師等により行われた健康診断その他の検査の結果、保健指導、診療・調剤情報、本人を被疑者又は被告人として逮捕等の刑事事件に関する手続が行われたこと、非行・保護処分等の少年の保護事件に関する手続が行われたことの記述などが含まれる個人情報&lt;/mark&gt;
+---
+このような「要配慮個人情報」の取得には、原則としてあらかじめ本人の同意が必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A. 安全管理, B. 漏えい、C. 有用性</t>
+    <rPh sb="3" eb="7">
+      <t>アンゼンカンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ロウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A. 安全管理, B. 漏えい、C. 正確性</t>
+    <rPh sb="3" eb="7">
+      <t>アンゼンカンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ロウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイカクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滅失</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A. 安全管理, B. 滅失、C. 正確性</t>
+    <rPh sb="3" eb="7">
+      <t>アンゼンカンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メッシツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セイカクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A. 安全管理, B. 毀損、C. 有用性</t>
+    <rPh sb="3" eb="7">
+      <t>アンゼンカンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記は②個人データの保管・管理のルールです。A, B, Cの空欄に該当するものを選びなさい。
+1. 個人データの__(A)__を講ずる（__(A)__を講ずる義務）。
+2. 個人情報保護委員会・本人に対して__(B)__等を報告する（__(B)__等事案への必要な措置を講ずる義務）。
+3. 従業者を監督する（従業者の監督義務）
+4. 委託先を監督する（委託先の監督義務）。
+5. データ内容の__(C)__の確保等に努める（データ内容の__(C)__の確保等努力義務）。</t>
+    <rPh sb="30" eb="32">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②個人データの保管・管理のルールについて教えてください。</t>
+    <rPh sb="20" eb="21">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②個人データの保管・管理のルール
+1.個人データの安全管理措置を講ずる（安全管理措置を講ずる義務）。
+2.個人情報保護委員会・本人に対して漏えい等を報告する（漏えい等事案への必要な措置を講ずる義務）。
+3.従業者を監督する（従業者の監督義務）。
+4.委託先を監督する（委託先の監督義務）。
+5.データ内容の正確性の確保等に努める（データ内容の正確性の確保等努力義務）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①個人情報の取得・利用のルール
 1. 利用目的の特定義務。
 2. 利用目的の通知・公表義務。
 3. 適正取得義務。
 4. 利用目的による制限を遵守する義務。
 5. 不適正利用の禁止義務。
 6. 要配慮個人情報の取得にはあらかじめ本人の同意を取得する。</t>
-    <rPh sb="64" eb="66">
+    <rPh sb="61" eb="63">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="63" eb="65">
       <t>モクテキ</t>
     </rPh>
-    <rPh sb="85" eb="88">
+    <rPh sb="82" eb="85">
       <t>フテキセイ</t>
     </rPh>
-    <rPh sb="93" eb="95">
+    <rPh sb="90" eb="92">
       <t>ギム</t>
     </rPh>
-    <rPh sb="100" eb="107">
+    <rPh sb="97" eb="104">
       <t>ヨウハイリョコジンジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①個人情報の取得・利用のルールについて教えてください。</t>
-    <rPh sb="19" eb="20">
+    <t>個人情報取扱事業者は、その取り扱う個人データにつき、利用目的の達成に必要な範囲において、正確かつ最新の内容に保つとともに、利用する必要がなくなったときは、当該データを遅滞なく消去するように努めなければなりません（法22条）。これらの義務はいずれも〇〇です。</t>
+  </si>
+  <si>
+    <t>努力義務</t>
+  </si>
+  <si>
+    <t>法的義務</t>
+  </si>
+  <si>
+    <t>道徳義務</t>
+  </si>
+  <si>
+    <t>業務指針</t>
+  </si>
+  <si>
+    <t>法２２条について教えてください。</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>オシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>session</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12758,10 +12873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9CAC1B-53F2-4D96-A269-B1C38DDB12C9}">
-  <dimension ref="A1:Q431"/>
+  <dimension ref="A1:Q432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12779,7 +12894,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -12788,19 +12903,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3796</v>
+        <v>3792</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -12827,7 +12942,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -12874,7 +12989,7 @@
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -12921,7 +13036,7 @@
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -12968,7 +13083,7 @@
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -13015,7 +13130,7 @@
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -13062,7 +13177,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -13109,7 +13224,7 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -13156,7 +13271,7 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -13203,7 +13318,7 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -13250,7 +13365,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -13297,7 +13412,7 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -13344,7 +13459,7 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -13391,7 +13506,7 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -13438,7 +13553,7 @@
     </row>
     <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -13485,7 +13600,7 @@
     </row>
     <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -13532,7 +13647,7 @@
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -13579,7 +13694,7 @@
     </row>
     <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -13626,7 +13741,7 @@
     </row>
     <row r="19" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -13673,7 +13788,7 @@
     </row>
     <row r="20" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -13720,7 +13835,7 @@
     </row>
     <row r="21" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>14</v>
@@ -13767,7 +13882,7 @@
     </row>
     <row r="22" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>14</v>
@@ -13814,7 +13929,7 @@
     </row>
     <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
@@ -13861,7 +13976,7 @@
     </row>
     <row r="24" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -13908,7 +14023,7 @@
     </row>
     <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -13955,7 +14070,7 @@
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -14002,7 +14117,7 @@
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -14049,7 +14164,7 @@
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -14096,7 +14211,7 @@
     </row>
     <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -14143,7 +14258,7 @@
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -14190,7 +14305,7 @@
     </row>
     <row r="31" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -14237,7 +14352,7 @@
     </row>
     <row r="32" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -14284,7 +14399,7 @@
     </row>
     <row r="33" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -14331,7 +14446,7 @@
     </row>
     <row r="34" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -14378,7 +14493,7 @@
     </row>
     <row r="35" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -14425,7 +14540,7 @@
     </row>
     <row r="36" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -14472,7 +14587,7 @@
     </row>
     <row r="37" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -14519,7 +14634,7 @@
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -14566,7 +14681,7 @@
     </row>
     <row r="39" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
@@ -14613,7 +14728,7 @@
     </row>
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
@@ -14660,7 +14775,7 @@
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -14707,7 +14822,7 @@
     </row>
     <row r="42" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>14</v>
@@ -14754,7 +14869,7 @@
     </row>
     <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>14</v>
@@ -14801,7 +14916,7 @@
     </row>
     <row r="44" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -14848,7 +14963,7 @@
     </row>
     <row r="45" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>14</v>
@@ -14895,7 +15010,7 @@
     </row>
     <row r="46" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>14</v>
@@ -14942,7 +15057,7 @@
     </row>
     <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>14</v>
@@ -14989,7 +15104,7 @@
     </row>
     <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
@@ -15036,7 +15151,7 @@
     </row>
     <row r="49" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>14</v>
@@ -15083,7 +15198,7 @@
     </row>
     <row r="50" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
@@ -15130,7 +15245,7 @@
     </row>
     <row r="51" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
@@ -15177,7 +15292,7 @@
     </row>
     <row r="52" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>14</v>
@@ -15224,7 +15339,7 @@
     </row>
     <row r="53" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>14</v>
@@ -15271,7 +15386,7 @@
     </row>
     <row r="54" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>14</v>
@@ -15318,7 +15433,7 @@
     </row>
     <row r="55" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>14</v>
@@ -15365,7 +15480,7 @@
     </row>
     <row r="56" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>14</v>
@@ -15412,7 +15527,7 @@
     </row>
     <row r="57" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>14</v>
@@ -15459,7 +15574,7 @@
     </row>
     <row r="58" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>14</v>
@@ -15506,7 +15621,7 @@
     </row>
     <row r="59" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>14</v>
@@ -15553,7 +15668,7 @@
     </row>
     <row r="60" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>14</v>
@@ -15600,7 +15715,7 @@
     </row>
     <row r="61" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>14</v>
@@ -15647,7 +15762,7 @@
     </row>
     <row r="62" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>14</v>
@@ -15694,7 +15809,7 @@
     </row>
     <row r="63" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>14</v>
@@ -15741,7 +15856,7 @@
     </row>
     <row r="64" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>14</v>
@@ -15788,7 +15903,7 @@
     </row>
     <row r="65" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>14</v>
@@ -15835,7 +15950,7 @@
     </row>
     <row r="66" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>14</v>
@@ -15882,7 +15997,7 @@
     </row>
     <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>14</v>
@@ -15929,7 +16044,7 @@
     </row>
     <row r="68" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>14</v>
@@ -15976,7 +16091,7 @@
     </row>
     <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
@@ -16023,7 +16138,7 @@
     </row>
     <row r="70" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>14</v>
@@ -16070,7 +16185,7 @@
     </row>
     <row r="71" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>14</v>
@@ -16117,7 +16232,7 @@
     </row>
     <row r="72" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>14</v>
@@ -16164,7 +16279,7 @@
     </row>
     <row r="73" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>14</v>
@@ -16211,7 +16326,7 @@
     </row>
     <row r="74" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>14</v>
@@ -16258,7 +16373,7 @@
     </row>
     <row r="75" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>14</v>
@@ -16305,7 +16420,7 @@
     </row>
     <row r="76" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>14</v>
@@ -16352,7 +16467,7 @@
     </row>
     <row r="77" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>14</v>
@@ -16399,7 +16514,7 @@
     </row>
     <row r="78" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>14</v>
@@ -16446,7 +16561,7 @@
     </row>
     <row r="79" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>14</v>
@@ -16493,7 +16608,7 @@
     </row>
     <row r="80" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>14</v>
@@ -16540,7 +16655,7 @@
     </row>
     <row r="81" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>14</v>
@@ -16587,7 +16702,7 @@
     </row>
     <row r="82" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>14</v>
@@ -16634,7 +16749,7 @@
     </row>
     <row r="83" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>14</v>
@@ -16681,7 +16796,7 @@
     </row>
     <row r="84" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>14</v>
@@ -16728,7 +16843,7 @@
     </row>
     <row r="85" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>14</v>
@@ -16775,7 +16890,7 @@
     </row>
     <row r="86" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>14</v>
@@ -16822,7 +16937,7 @@
     </row>
     <row r="87" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>14</v>
@@ -16869,7 +16984,7 @@
     </row>
     <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>14</v>
@@ -16916,7 +17031,7 @@
     </row>
     <row r="89" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>14</v>
@@ -16963,7 +17078,7 @@
     </row>
     <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>14</v>
@@ -17010,7 +17125,7 @@
     </row>
     <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>14</v>
@@ -17057,7 +17172,7 @@
     </row>
     <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>14</v>
@@ -17104,7 +17219,7 @@
     </row>
     <row r="93" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>14</v>
@@ -17151,7 +17266,7 @@
     </row>
     <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>14</v>
@@ -17198,7 +17313,7 @@
     </row>
     <row r="95" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>14</v>
@@ -17245,7 +17360,7 @@
     </row>
     <row r="96" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>14</v>
@@ -17292,7 +17407,7 @@
     </row>
     <row r="97" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>14</v>
@@ -17339,7 +17454,7 @@
     </row>
     <row r="98" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>14</v>
@@ -17386,7 +17501,7 @@
     </row>
     <row r="99" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>14</v>
@@ -17433,7 +17548,7 @@
     </row>
     <row r="100" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
@@ -17480,7 +17595,7 @@
     </row>
     <row r="101" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>14</v>
@@ -17527,7 +17642,7 @@
     </row>
     <row r="102" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>14</v>
@@ -17574,7 +17689,7 @@
     </row>
     <row r="103" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>14</v>
@@ -17621,7 +17736,7 @@
     </row>
     <row r="104" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>14</v>
@@ -17668,7 +17783,7 @@
     </row>
     <row r="105" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>14</v>
@@ -17715,7 +17830,7 @@
     </row>
     <row r="106" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>14</v>
@@ -17762,7 +17877,7 @@
     </row>
     <row r="107" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>14</v>
@@ -17809,7 +17924,7 @@
     </row>
     <row r="108" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>14</v>
@@ -17856,7 +17971,7 @@
     </row>
     <row r="109" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>14</v>
@@ -17903,7 +18018,7 @@
     </row>
     <row r="110" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>14</v>
@@ -17950,7 +18065,7 @@
     </row>
     <row r="111" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>14</v>
@@ -17997,7 +18112,7 @@
     </row>
     <row r="112" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>14</v>
@@ -18044,7 +18159,7 @@
     </row>
     <row r="113" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>14</v>
@@ -18091,7 +18206,7 @@
     </row>
     <row r="114" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>14</v>
@@ -18138,7 +18253,7 @@
     </row>
     <row r="115" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>14</v>
@@ -18185,7 +18300,7 @@
     </row>
     <row r="116" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>14</v>
@@ -18232,7 +18347,7 @@
     </row>
     <row r="117" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>14</v>
@@ -18279,7 +18394,7 @@
     </row>
     <row r="118" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>14</v>
@@ -18326,7 +18441,7 @@
     </row>
     <row r="119" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>14</v>
@@ -18373,7 +18488,7 @@
     </row>
     <row r="120" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>14</v>
@@ -18420,7 +18535,7 @@
     </row>
     <row r="121" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>14</v>
@@ -18467,7 +18582,7 @@
     </row>
     <row r="122" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>14</v>
@@ -18514,7 +18629,7 @@
     </row>
     <row r="123" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>14</v>
@@ -18561,7 +18676,7 @@
     </row>
     <row r="124" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>14</v>
@@ -18608,7 +18723,7 @@
     </row>
     <row r="125" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>14</v>
@@ -18655,7 +18770,7 @@
     </row>
     <row r="126" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>14</v>
@@ -18702,7 +18817,7 @@
     </row>
     <row r="127" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>14</v>
@@ -18749,7 +18864,7 @@
     </row>
     <row r="128" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>14</v>
@@ -18796,7 +18911,7 @@
     </row>
     <row r="129" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>14</v>
@@ -18843,7 +18958,7 @@
     </row>
     <row r="130" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>14</v>
@@ -18890,7 +19005,7 @@
     </row>
     <row r="131" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>14</v>
@@ -18937,7 +19052,7 @@
     </row>
     <row r="132" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>14</v>
@@ -18984,7 +19099,7 @@
     </row>
     <row r="133" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>14</v>
@@ -19031,7 +19146,7 @@
     </row>
     <row r="134" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>14</v>
@@ -19078,7 +19193,7 @@
     </row>
     <row r="135" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>14</v>
@@ -19125,7 +19240,7 @@
     </row>
     <row r="136" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>14</v>
@@ -19172,7 +19287,7 @@
     </row>
     <row r="137" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>14</v>
@@ -19219,7 +19334,7 @@
     </row>
     <row r="138" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>14</v>
@@ -19266,7 +19381,7 @@
     </row>
     <row r="139" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>14</v>
@@ -19313,7 +19428,7 @@
     </row>
     <row r="140" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>14</v>
@@ -19360,7 +19475,7 @@
     </row>
     <row r="141" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>14</v>
@@ -19407,7 +19522,7 @@
     </row>
     <row r="142" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>14</v>
@@ -19454,7 +19569,7 @@
     </row>
     <row r="143" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>14</v>
@@ -19501,7 +19616,7 @@
     </row>
     <row r="144" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>14</v>
@@ -19548,7 +19663,7 @@
     </row>
     <row r="145" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>14</v>
@@ -19595,7 +19710,7 @@
     </row>
     <row r="146" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>14</v>
@@ -19642,7 +19757,7 @@
     </row>
     <row r="147" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>14</v>
@@ -19689,7 +19804,7 @@
     </row>
     <row r="148" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>14</v>
@@ -19736,7 +19851,7 @@
     </row>
     <row r="149" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>14</v>
@@ -19783,7 +19898,7 @@
     </row>
     <row r="150" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>14</v>
@@ -19830,7 +19945,7 @@
     </row>
     <row r="151" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>14</v>
@@ -19877,7 +19992,7 @@
     </row>
     <row r="152" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>14</v>
@@ -19924,7 +20039,7 @@
     </row>
     <row r="153" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>14</v>
@@ -19971,7 +20086,7 @@
     </row>
     <row r="154" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>14</v>
@@ -20018,7 +20133,7 @@
     </row>
     <row r="155" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>14</v>
@@ -20065,7 +20180,7 @@
     </row>
     <row r="156" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>14</v>
@@ -20112,7 +20227,7 @@
     </row>
     <row r="157" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>14</v>
@@ -20159,7 +20274,7 @@
     </row>
     <row r="158" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>14</v>
@@ -20206,7 +20321,7 @@
     </row>
     <row r="159" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>14</v>
@@ -20253,7 +20368,7 @@
     </row>
     <row r="160" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>14</v>
@@ -20300,7 +20415,7 @@
     </row>
     <row r="161" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>14</v>
@@ -20347,7 +20462,7 @@
     </row>
     <row r="162" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>14</v>
@@ -20394,7 +20509,7 @@
     </row>
     <row r="163" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>14</v>
@@ -20441,7 +20556,7 @@
     </row>
     <row r="164" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>14</v>
@@ -20488,7 +20603,7 @@
     </row>
     <row r="165" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>14</v>
@@ -20535,7 +20650,7 @@
     </row>
     <row r="166" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>14</v>
@@ -20582,7 +20697,7 @@
     </row>
     <row r="167" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>14</v>
@@ -20629,7 +20744,7 @@
     </row>
     <row r="168" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>14</v>
@@ -20676,7 +20791,7 @@
     </row>
     <row r="169" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>14</v>
@@ -20723,7 +20838,7 @@
     </row>
     <row r="170" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>14</v>
@@ -20770,7 +20885,7 @@
     </row>
     <row r="171" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>14</v>
@@ -20817,7 +20932,7 @@
     </row>
     <row r="172" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>14</v>
@@ -20864,7 +20979,7 @@
     </row>
     <row r="173" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>14</v>
@@ -20911,7 +21026,7 @@
     </row>
     <row r="174" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>14</v>
@@ -20958,7 +21073,7 @@
     </row>
     <row r="175" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>14</v>
@@ -21005,7 +21120,7 @@
     </row>
     <row r="176" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>14</v>
@@ -21052,7 +21167,7 @@
     </row>
     <row r="177" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>14</v>
@@ -21099,7 +21214,7 @@
     </row>
     <row r="178" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>14</v>
@@ -21146,7 +21261,7 @@
     </row>
     <row r="179" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>14</v>
@@ -21193,7 +21308,7 @@
     </row>
     <row r="180" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>14</v>
@@ -21240,7 +21355,7 @@
     </row>
     <row r="181" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>14</v>
@@ -21287,7 +21402,7 @@
     </row>
     <row r="182" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>14</v>
@@ -21334,7 +21449,7 @@
     </row>
     <row r="183" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>14</v>
@@ -21381,7 +21496,7 @@
     </row>
     <row r="184" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>14</v>
@@ -21428,7 +21543,7 @@
     </row>
     <row r="185" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>14</v>
@@ -21475,7 +21590,7 @@
     </row>
     <row r="186" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>14</v>
@@ -21522,7 +21637,7 @@
     </row>
     <row r="187" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>14</v>
@@ -21569,7 +21684,7 @@
     </row>
     <row r="188" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>14</v>
@@ -21616,7 +21731,7 @@
     </row>
     <row r="189" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>14</v>
@@ -21663,7 +21778,7 @@
     </row>
     <row r="190" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>14</v>
@@ -21710,7 +21825,7 @@
     </row>
     <row r="191" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>14</v>
@@ -21757,7 +21872,7 @@
     </row>
     <row r="192" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>14</v>
@@ -21804,7 +21919,7 @@
     </row>
     <row r="193" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>14</v>
@@ -21851,7 +21966,7 @@
     </row>
     <row r="194" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>14</v>
@@ -21898,7 +22013,7 @@
     </row>
     <row r="195" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>14</v>
@@ -21945,7 +22060,7 @@
     </row>
     <row r="196" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>14</v>
@@ -21992,7 +22107,7 @@
     </row>
     <row r="197" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>14</v>
@@ -22039,7 +22154,7 @@
     </row>
     <row r="198" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>14</v>
@@ -22086,7 +22201,7 @@
     </row>
     <row r="199" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>14</v>
@@ -22133,7 +22248,7 @@
     </row>
     <row r="200" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>14</v>
@@ -22180,7 +22295,7 @@
     </row>
     <row r="201" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>14</v>
@@ -22227,7 +22342,7 @@
     </row>
     <row r="202" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>14</v>
@@ -22274,7 +22389,7 @@
     </row>
     <row r="203" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>14</v>
@@ -22321,7 +22436,7 @@
     </row>
     <row r="204" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>14</v>
@@ -22368,7 +22483,7 @@
     </row>
     <row r="205" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>14</v>
@@ -22415,7 +22530,7 @@
     </row>
     <row r="206" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>14</v>
@@ -22462,7 +22577,7 @@
     </row>
     <row r="207" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>14</v>
@@ -22509,7 +22624,7 @@
     </row>
     <row r="208" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>14</v>
@@ -22556,7 +22671,7 @@
     </row>
     <row r="209" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>14</v>
@@ -22603,7 +22718,7 @@
     </row>
     <row r="210" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>14</v>
@@ -22650,7 +22765,7 @@
     </row>
     <row r="211" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>14</v>
@@ -22697,7 +22812,7 @@
     </row>
     <row r="212" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>14</v>
@@ -22744,7 +22859,7 @@
     </row>
     <row r="213" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>14</v>
@@ -22791,7 +22906,7 @@
     </row>
     <row r="214" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>14</v>
@@ -22838,7 +22953,7 @@
     </row>
     <row r="215" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>14</v>
@@ -22885,7 +23000,7 @@
     </row>
     <row r="216" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>14</v>
@@ -22932,7 +23047,7 @@
     </row>
     <row r="217" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>14</v>
@@ -22979,7 +23094,7 @@
     </row>
     <row r="218" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>14</v>
@@ -23026,7 +23141,7 @@
     </row>
     <row r="219" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>14</v>
@@ -23073,7 +23188,7 @@
     </row>
     <row r="220" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>14</v>
@@ -23120,7 +23235,7 @@
     </row>
     <row r="221" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>14</v>
@@ -23167,7 +23282,7 @@
     </row>
     <row r="222" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>14</v>
@@ -23214,7 +23329,7 @@
     </row>
     <row r="223" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>14</v>
@@ -23261,7 +23376,7 @@
     </row>
     <row r="224" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>14</v>
@@ -23308,7 +23423,7 @@
     </row>
     <row r="225" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>14</v>
@@ -23355,7 +23470,7 @@
     </row>
     <row r="226" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>14</v>
@@ -23402,7 +23517,7 @@
     </row>
     <row r="227" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>14</v>
@@ -23449,7 +23564,7 @@
     </row>
     <row r="228" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>14</v>
@@ -23496,7 +23611,7 @@
     </row>
     <row r="229" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>14</v>
@@ -23543,7 +23658,7 @@
     </row>
     <row r="230" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>14</v>
@@ -23590,7 +23705,7 @@
     </row>
     <row r="231" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>14</v>
@@ -23637,7 +23752,7 @@
     </row>
     <row r="232" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>14</v>
@@ -23684,7 +23799,7 @@
     </row>
     <row r="233" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>14</v>
@@ -23731,7 +23846,7 @@
     </row>
     <row r="234" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>14</v>
@@ -23778,7 +23893,7 @@
     </row>
     <row r="235" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>14</v>
@@ -23825,7 +23940,7 @@
     </row>
     <row r="236" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>14</v>
@@ -23872,7 +23987,7 @@
     </row>
     <row r="237" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>14</v>
@@ -23919,7 +24034,7 @@
     </row>
     <row r="238" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>14</v>
@@ -23966,7 +24081,7 @@
     </row>
     <row r="239" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>14</v>
@@ -24013,7 +24128,7 @@
     </row>
     <row r="240" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
@@ -24060,7 +24175,7 @@
     </row>
     <row r="241" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>14</v>
@@ -24107,7 +24222,7 @@
     </row>
     <row r="242" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>14</v>
@@ -24154,7 +24269,7 @@
     </row>
     <row r="243" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>14</v>
@@ -24201,7 +24316,7 @@
     </row>
     <row r="244" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>14</v>
@@ -24248,7 +24363,7 @@
     </row>
     <row r="245" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>14</v>
@@ -24295,7 +24410,7 @@
     </row>
     <row r="246" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>14</v>
@@ -24342,7 +24457,7 @@
     </row>
     <row r="247" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>14</v>
@@ -24389,7 +24504,7 @@
     </row>
     <row r="248" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>14</v>
@@ -24436,7 +24551,7 @@
     </row>
     <row r="249" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>14</v>
@@ -24483,7 +24598,7 @@
     </row>
     <row r="250" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>14</v>
@@ -24530,7 +24645,7 @@
     </row>
     <row r="251" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>14</v>
@@ -24577,7 +24692,7 @@
     </row>
     <row r="252" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>14</v>
@@ -24624,7 +24739,7 @@
     </row>
     <row r="253" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>14</v>
@@ -24671,7 +24786,7 @@
     </row>
     <row r="254" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>14</v>
@@ -24718,7 +24833,7 @@
     </row>
     <row r="255" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
@@ -24765,7 +24880,7 @@
     </row>
     <row r="256" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>14</v>
@@ -24812,7 +24927,7 @@
     </row>
     <row r="257" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>14</v>
@@ -24859,7 +24974,7 @@
     </row>
     <row r="258" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
@@ -24906,7 +25021,7 @@
     </row>
     <row r="259" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>14</v>
@@ -24953,7 +25068,7 @@
     </row>
     <row r="260" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>14</v>
@@ -25000,7 +25115,7 @@
     </row>
     <row r="261" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
@@ -25047,7 +25162,7 @@
     </row>
     <row r="262" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>14</v>
@@ -25094,7 +25209,7 @@
     </row>
     <row r="263" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>14</v>
@@ -25141,7 +25256,7 @@
     </row>
     <row r="264" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
@@ -25188,7 +25303,7 @@
     </row>
     <row r="265" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>14</v>
@@ -25235,7 +25350,7 @@
     </row>
     <row r="266" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>14</v>
@@ -25282,7 +25397,7 @@
     </row>
     <row r="267" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
@@ -25329,7 +25444,7 @@
     </row>
     <row r="268" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>14</v>
@@ -25376,7 +25491,7 @@
     </row>
     <row r="269" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>14</v>
@@ -25423,7 +25538,7 @@
     </row>
     <row r="270" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
@@ -25470,7 +25585,7 @@
     </row>
     <row r="271" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>14</v>
@@ -25517,7 +25632,7 @@
     </row>
     <row r="272" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>14</v>
@@ -25564,7 +25679,7 @@
     </row>
     <row r="273" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
@@ -25611,7 +25726,7 @@
     </row>
     <row r="274" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>14</v>
@@ -25658,7 +25773,7 @@
     </row>
     <row r="275" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>14</v>
@@ -25705,7 +25820,7 @@
     </row>
     <row r="276" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
@@ -25752,7 +25867,7 @@
     </row>
     <row r="277" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>14</v>
@@ -25799,7 +25914,7 @@
     </row>
     <row r="278" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>14</v>
@@ -25846,7 +25961,7 @@
     </row>
     <row r="279" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
@@ -25893,7 +26008,7 @@
     </row>
     <row r="280" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>14</v>
@@ -25940,7 +26055,7 @@
     </row>
     <row r="281" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>33</v>
@@ -25987,7 +26102,7 @@
     </row>
     <row r="282" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>33</v>
@@ -26034,7 +26149,7 @@
     </row>
     <row r="283" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>33</v>
@@ -26081,7 +26196,7 @@
     </row>
     <row r="284" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>33</v>
@@ -26128,7 +26243,7 @@
     </row>
     <row r="285" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>33</v>
@@ -26175,7 +26290,7 @@
     </row>
     <row r="286" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>33</v>
@@ -26222,7 +26337,7 @@
     </row>
     <row r="287" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>33</v>
@@ -26269,7 +26384,7 @@
     </row>
     <row r="288" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>33</v>
@@ -26316,7 +26431,7 @@
     </row>
     <row r="289" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>33</v>
@@ -26363,7 +26478,7 @@
     </row>
     <row r="290" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>33</v>
@@ -26410,7 +26525,7 @@
     </row>
     <row r="291" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>33</v>
@@ -26457,7 +26572,7 @@
     </row>
     <row r="292" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>33</v>
@@ -26504,7 +26619,7 @@
     </row>
     <row r="293" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>33</v>
@@ -26551,7 +26666,7 @@
     </row>
     <row r="294" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>33</v>
@@ -26598,7 +26713,7 @@
     </row>
     <row r="295" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>33</v>
@@ -26645,7 +26760,7 @@
     </row>
     <row r="296" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>33</v>
@@ -26692,7 +26807,7 @@
     </row>
     <row r="297" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>33</v>
@@ -26739,7 +26854,7 @@
     </row>
     <row r="298" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>33</v>
@@ -26786,7 +26901,7 @@
     </row>
     <row r="299" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>33</v>
@@ -26833,7 +26948,7 @@
     </row>
     <row r="300" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>33</v>
@@ -26880,7 +26995,7 @@
     </row>
     <row r="301" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>33</v>
@@ -26927,7 +27042,7 @@
     </row>
     <row r="302" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>3495</v>
@@ -26974,7 +27089,7 @@
     </row>
     <row r="303" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>3495</v>
@@ -27021,7 +27136,7 @@
     </row>
     <row r="304" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>3495</v>
@@ -27068,7 +27183,7 @@
     </row>
     <row r="305" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>3495</v>
@@ -27115,7 +27230,7 @@
     </row>
     <row r="306" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>3495</v>
@@ -27162,7 +27277,7 @@
     </row>
     <row r="307" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>3495</v>
@@ -27209,7 +27324,7 @@
     </row>
     <row r="308" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>3495</v>
@@ -27256,7 +27371,7 @@
     </row>
     <row r="309" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>3495</v>
@@ -27303,7 +27418,7 @@
     </row>
     <row r="310" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>3495</v>
@@ -27350,7 +27465,7 @@
     </row>
     <row r="311" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>3495</v>
@@ -27397,7 +27512,7 @@
     </row>
     <row r="312" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>3495</v>
@@ -27444,7 +27559,7 @@
     </row>
     <row r="313" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>3495</v>
@@ -27491,7 +27606,7 @@
     </row>
     <row r="314" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>3495</v>
@@ -27538,7 +27653,7 @@
     </row>
     <row r="315" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>3495</v>
@@ -27585,7 +27700,7 @@
     </row>
     <row r="316" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>3495</v>
@@ -27632,7 +27747,7 @@
     </row>
     <row r="317" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>3495</v>
@@ -27679,7 +27794,7 @@
     </row>
     <row r="318" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>3495</v>
@@ -27726,7 +27841,7 @@
     </row>
     <row r="319" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>3495</v>
@@ -27773,7 +27888,7 @@
     </row>
     <row r="320" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>3495</v>
@@ -27820,7 +27935,7 @@
     </row>
     <row r="321" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B321" s="9" t="s">
         <v>3495</v>
@@ -27867,7 +27982,7 @@
     </row>
     <row r="322" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>3495</v>
@@ -27914,7 +28029,7 @@
     </row>
     <row r="323" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>3495</v>
@@ -27961,7 +28076,7 @@
     </row>
     <row r="324" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>3495</v>
@@ -28008,7 +28123,7 @@
     </row>
     <row r="325" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>3495</v>
@@ -28055,7 +28170,7 @@
     </row>
     <row r="326" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>3495</v>
@@ -28102,7 +28217,7 @@
     </row>
     <row r="327" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>3495</v>
@@ -28149,7 +28264,7 @@
     </row>
     <row r="328" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>3495</v>
@@ -28196,7 +28311,7 @@
     </row>
     <row r="329" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>3495</v>
@@ -28243,7 +28358,7 @@
     </row>
     <row r="330" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>3495</v>
@@ -28290,7 +28405,7 @@
     </row>
     <row r="331" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>3495</v>
@@ -28337,7 +28452,7 @@
     </row>
     <row r="332" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>3495</v>
@@ -28384,7 +28499,7 @@
     </row>
     <row r="333" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>3495</v>
@@ -28431,7 +28546,7 @@
     </row>
     <row r="334" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>3495</v>
@@ -28478,7 +28593,7 @@
     </row>
     <row r="335" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B335" s="9" t="s">
         <v>3495</v>
@@ -28525,7 +28640,7 @@
     </row>
     <row r="336" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B336" s="9" t="s">
         <v>3495</v>
@@ -28572,7 +28687,7 @@
     </row>
     <row r="337" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B337" s="9" t="s">
         <v>3500</v>
@@ -28619,7 +28734,7 @@
     </row>
     <row r="338" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B338" s="9" t="s">
         <v>3500</v>
@@ -28666,7 +28781,7 @@
     </row>
     <row r="339" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B339" s="9" t="s">
         <v>3500</v>
@@ -28713,7 +28828,7 @@
     </row>
     <row r="340" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>3500</v>
@@ -28760,7 +28875,7 @@
     </row>
     <row r="341" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B341" s="9" t="s">
         <v>3500</v>
@@ -28807,7 +28922,7 @@
     </row>
     <row r="342" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B342" s="9" t="s">
         <v>3500</v>
@@ -28854,7 +28969,7 @@
     </row>
     <row r="343" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B343" s="9" t="s">
         <v>3500</v>
@@ -28901,7 +29016,7 @@
     </row>
     <row r="344" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B344" s="9" t="s">
         <v>3500</v>
@@ -28948,7 +29063,7 @@
     </row>
     <row r="345" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B345" s="9" t="s">
         <v>3500</v>
@@ -28995,7 +29110,7 @@
     </row>
     <row r="346" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B346" s="9" t="s">
         <v>3500</v>
@@ -29042,7 +29157,7 @@
     </row>
     <row r="347" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>3500</v>
@@ -29089,7 +29204,7 @@
     </row>
     <row r="348" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B348" s="9" t="s">
         <v>3500</v>
@@ -29136,7 +29251,7 @@
     </row>
     <row r="349" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>3500</v>
@@ -29183,7 +29298,7 @@
     </row>
     <row r="350" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B350" s="9" t="s">
         <v>3500</v>
@@ -29230,7 +29345,7 @@
     </row>
     <row r="351" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>3500</v>
@@ -29277,7 +29392,7 @@
     </row>
     <row r="352" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B352" s="9" t="s">
         <v>3500</v>
@@ -29324,7 +29439,7 @@
     </row>
     <row r="353" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B353" s="9" t="s">
         <v>3500</v>
@@ -29371,7 +29486,7 @@
     </row>
     <row r="354" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B354" s="9" t="s">
         <v>3500</v>
@@ -29418,7 +29533,7 @@
     </row>
     <row r="355" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B355" s="9" t="s">
         <v>3500</v>
@@ -29465,7 +29580,7 @@
     </row>
     <row r="356" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>3500</v>
@@ -29512,7 +29627,7 @@
     </row>
     <row r="357" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>3500</v>
@@ -29559,7 +29674,7 @@
     </row>
     <row r="358" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>3500</v>
@@ -29606,7 +29721,7 @@
     </row>
     <row r="359" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>3500</v>
@@ -29653,7 +29768,7 @@
     </row>
     <row r="360" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>3500</v>
@@ -29700,7 +29815,7 @@
     </row>
     <row r="361" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>3500</v>
@@ -29747,7 +29862,7 @@
     </row>
     <row r="362" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B362" s="9" t="s">
         <v>3500</v>
@@ -29794,7 +29909,7 @@
     </row>
     <row r="363" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>3500</v>
@@ -29841,7 +29956,7 @@
     </row>
     <row r="364" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B364" s="9" t="s">
         <v>3500</v>
@@ -29888,7 +30003,7 @@
     </row>
     <row r="365" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B365" s="9" t="s">
         <v>3500</v>
@@ -29935,7 +30050,7 @@
     </row>
     <row r="366" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B366" s="9" t="s">
         <v>3500</v>
@@ -29982,7 +30097,7 @@
     </row>
     <row r="367" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B367" s="9" t="s">
         <v>3500</v>
@@ -30029,7 +30144,7 @@
     </row>
     <row r="368" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B368" s="9" t="s">
         <v>3500</v>
@@ -30076,7 +30191,7 @@
     </row>
     <row r="369" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B369" s="9" t="s">
         <v>3500</v>
@@ -30123,7 +30238,7 @@
     </row>
     <row r="370" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B370" s="9" t="s">
         <v>3500</v>
@@ -30170,7 +30285,7 @@
     </row>
     <row r="371" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>3500</v>
@@ -30217,7 +30332,7 @@
     </row>
     <row r="372" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B372" s="9" t="s">
         <v>3500</v>
@@ -30264,7 +30379,7 @@
     </row>
     <row r="373" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B373" s="9" t="s">
         <v>3500</v>
@@ -30311,7 +30426,7 @@
     </row>
     <row r="374" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>3500</v>
@@ -30358,7 +30473,7 @@
     </row>
     <row r="375" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B375" s="9" t="s">
         <v>3500</v>
@@ -30405,7 +30520,7 @@
     </row>
     <row r="376" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B376" s="9" t="s">
         <v>3500</v>
@@ -30452,7 +30567,7 @@
     </row>
     <row r="377" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>3500</v>
@@ -30499,7 +30614,7 @@
     </row>
     <row r="378" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>3500</v>
@@ -30546,7 +30661,7 @@
     </row>
     <row r="379" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B379" s="9" t="s">
         <v>3500</v>
@@ -30593,7 +30708,7 @@
     </row>
     <row r="380" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>3500</v>
@@ -30640,7 +30755,7 @@
     </row>
     <row r="381" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B381" s="9" t="s">
         <v>3500</v>
@@ -30687,7 +30802,7 @@
     </row>
     <row r="382" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B382" s="9" t="s">
         <v>3500</v>
@@ -30734,7 +30849,7 @@
     </row>
     <row r="383" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B383" s="9" t="s">
         <v>3500</v>
@@ -30781,7 +30896,7 @@
     </row>
     <row r="384" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B384" s="9" t="s">
         <v>3500</v>
@@ -30828,7 +30943,7 @@
     </row>
     <row r="385" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B385" s="9" t="s">
         <v>3500</v>
@@ -30875,7 +30990,7 @@
     </row>
     <row r="386" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B386" s="9" t="s">
         <v>3500</v>
@@ -30922,7 +31037,7 @@
     </row>
     <row r="387" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>3500</v>
@@ -30969,7 +31084,7 @@
     </row>
     <row r="388" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>3513</v>
@@ -31016,7 +31131,7 @@
     </row>
     <row r="389" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>3513</v>
@@ -31063,31 +31178,31 @@
     </row>
     <row r="390" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B390" t="s">
         <v>3567</v>
       </c>
       <c r="C390" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D390" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E390" t="s">
         <v>3568</v>
       </c>
       <c r="F390" s="13" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="G390" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H390" s="13" t="s">
         <v>3569</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J390" s="13" t="s">
         <v>3570</v>
@@ -31110,31 +31225,31 @@
     </row>
     <row r="391" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B391" t="s">
         <v>3567</v>
       </c>
       <c r="C391" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D391" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E391" t="s">
         <v>3568</v>
       </c>
       <c r="F391" s="13" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>3569</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J391" s="13" t="s">
         <v>3575</v>
@@ -31157,31 +31272,31 @@
     </row>
     <row r="392" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B392" t="s">
         <v>3567</v>
       </c>
       <c r="C392" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D392" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E392" t="s">
         <v>3568</v>
       </c>
       <c r="F392" s="13" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="G392" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H392" s="13" t="s">
         <v>3569</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J392" s="13" t="s">
         <v>3580</v>
@@ -31204,31 +31319,31 @@
     </row>
     <row r="393" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B393" t="s">
         <v>3567</v>
       </c>
       <c r="C393" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D393" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E393" t="s">
         <v>3568</v>
       </c>
       <c r="F393" s="13" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>3581</v>
       </c>
       <c r="I393" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J393" s="13" t="s">
         <v>3582</v>
@@ -31251,31 +31366,31 @@
     </row>
     <row r="394" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B394" t="s">
         <v>3567</v>
       </c>
       <c r="C394" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D394" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E394" t="s">
         <v>3568</v>
       </c>
       <c r="F394" s="13" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="G394" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>3581</v>
       </c>
       <c r="I394" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J394" s="13" t="s">
         <v>3587</v>
@@ -31298,31 +31413,31 @@
     </row>
     <row r="395" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B395" t="s">
         <v>3567</v>
       </c>
       <c r="C395" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D395" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E395" t="s">
         <v>3568</v>
       </c>
       <c r="F395" s="13" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>3581</v>
       </c>
       <c r="I395" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J395" s="13" t="s">
         <v>3592</v>
@@ -31345,93 +31460,93 @@
     </row>
     <row r="396" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B396" t="s">
         <v>3567</v>
       </c>
       <c r="C396" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D396" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E396" t="s">
         <v>3568</v>
       </c>
       <c r="F396" s="13" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="G396" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H396" s="13" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I396" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J396" s="13" t="s">
         <v>3597</v>
       </c>
-      <c r="I396" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J396" s="13" t="s">
+      <c r="K396" s="13" t="s">
         <v>3598</v>
       </c>
-      <c r="K396" s="13" t="s">
+      <c r="L396" s="13" t="s">
         <v>3599</v>
       </c>
-      <c r="L396" s="13" t="s">
+      <c r="M396" s="13" t="s">
         <v>3600</v>
       </c>
-      <c r="M396" s="13" t="s">
+      <c r="N396" s="13" t="s">
         <v>3601</v>
       </c>
-      <c r="N396" s="13" t="s">
-        <v>3602</v>
-      </c>
       <c r="O396" s="13" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B397" t="s">
         <v>3567</v>
       </c>
       <c r="C397" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D397" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E397" t="s">
         <v>3568</v>
       </c>
       <c r="F397" s="13" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H397" s="13" t="s">
-        <v>3597</v>
+        <v>3799</v>
       </c>
       <c r="I397" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J397" s="13" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K397" s="13" t="s">
         <v>3603</v>
       </c>
-      <c r="K397" s="13" t="s">
+      <c r="L397" s="13" t="s">
         <v>3604</v>
-      </c>
-      <c r="L397" s="13" t="s">
-        <v>3605</v>
       </c>
       <c r="M397" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N397" s="13" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="O397" s="13" t="s">
         <v>16</v>
@@ -31439,1557 +31554,1648 @@
     </row>
     <row r="398" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B398" t="s">
         <v>3567</v>
       </c>
       <c r="C398" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D398" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E398" t="s">
         <v>3568</v>
       </c>
       <c r="F398" s="13" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="G398" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H398" s="13" t="s">
-        <v>3597</v>
+        <v>3799</v>
       </c>
       <c r="I398" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J398" s="13" t="s">
+        <v>3606</v>
+      </c>
+      <c r="K398" s="13" t="s">
         <v>3607</v>
       </c>
-      <c r="K398" s="13" t="s">
+      <c r="L398" s="13" t="s">
         <v>3608</v>
       </c>
-      <c r="L398" s="13" t="s">
+      <c r="M398" s="13" t="s">
         <v>3609</v>
       </c>
-      <c r="M398" s="13" t="s">
+      <c r="N398" s="13" t="s">
         <v>3610</v>
       </c>
-      <c r="N398" s="13" t="s">
-        <v>3611</v>
-      </c>
       <c r="O398" s="13" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="399" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B399" t="s">
         <v>3567</v>
       </c>
       <c r="C399" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D399" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E399" t="s">
         <v>3568</v>
       </c>
       <c r="F399" s="13" t="s">
-        <v>3772</v>
+        <v>3797</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H399" s="13" t="s">
-        <v>3612</v>
+        <v>3798</v>
       </c>
       <c r="I399" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J399" s="13" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="K399" s="13" t="s">
         <v>3591</v>
       </c>
       <c r="L399" s="13" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="M399" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N399" s="13" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="O399" s="13" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="400" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B400" t="s">
         <v>3567</v>
       </c>
       <c r="C400" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D400" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E400" t="s">
         <v>3568</v>
       </c>
       <c r="F400" s="13" t="s">
-        <v>3772</v>
+        <v>3797</v>
       </c>
       <c r="G400" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H400" s="13" t="s">
-        <v>3612</v>
+        <v>3798</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J400" s="13" t="s">
+        <v>3614</v>
+      </c>
+      <c r="K400" s="13" t="s">
+        <v>3615</v>
+      </c>
+      <c r="L400" s="13" t="s">
         <v>3616</v>
       </c>
-      <c r="K400" s="13" t="s">
+      <c r="M400" s="13" t="s">
         <v>3617</v>
       </c>
-      <c r="L400" s="13" t="s">
+      <c r="N400" s="13" t="s">
         <v>3618</v>
       </c>
-      <c r="M400" s="13" t="s">
-        <v>3619</v>
-      </c>
-      <c r="N400" s="13" t="s">
-        <v>3620</v>
-      </c>
       <c r="O400" s="13" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="401" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B401" t="s">
         <v>3567</v>
       </c>
       <c r="C401" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D401" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E401" t="s">
         <v>3568</v>
       </c>
       <c r="F401" s="13" t="s">
-        <v>3772</v>
+        <v>3797</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H401" s="13" t="s">
-        <v>3612</v>
+        <v>3798</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J401" s="13" t="s">
+        <v>3619</v>
+      </c>
+      <c r="K401" s="13" t="s">
+        <v>3620</v>
+      </c>
+      <c r="L401" s="13" t="s">
         <v>3621</v>
       </c>
-      <c r="K401" s="13" t="s">
+      <c r="M401" s="13" t="s">
         <v>3622</v>
       </c>
-      <c r="L401" s="13" t="s">
+      <c r="N401" s="13" t="s">
         <v>3623</v>
       </c>
-      <c r="M401" s="13" t="s">
-        <v>3624</v>
-      </c>
-      <c r="N401" s="13" t="s">
-        <v>3625</v>
-      </c>
       <c r="O401" s="13" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="402" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B402" t="s">
         <v>3567</v>
       </c>
       <c r="C402" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D402" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E402" t="s">
         <v>3568</v>
       </c>
       <c r="F402" s="13" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="G402" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H402" s="13" t="s">
+        <v>3624</v>
+      </c>
+      <c r="I402" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J402" s="13" t="s">
+        <v>3625</v>
+      </c>
+      <c r="K402" s="13" t="s">
         <v>3626</v>
       </c>
-      <c r="I402" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J402" s="13" t="s">
+      <c r="L402" s="13" t="s">
         <v>3627</v>
       </c>
-      <c r="K402" s="13" t="s">
+      <c r="M402" s="13" t="s">
         <v>3628</v>
       </c>
-      <c r="L402" s="13" t="s">
+      <c r="N402" s="13" t="s">
         <v>3629</v>
       </c>
-      <c r="M402" s="13" t="s">
-        <v>3630</v>
-      </c>
-      <c r="N402" s="13" t="s">
-        <v>3631</v>
-      </c>
       <c r="O402" s="13" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="403" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B403" t="s">
         <v>3567</v>
       </c>
       <c r="C403" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D403" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E403" t="s">
         <v>3568</v>
       </c>
       <c r="F403" s="13" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H403" s="13" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="I403" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J403" s="13" t="s">
+        <v>3630</v>
+      </c>
+      <c r="K403" s="13" t="s">
+        <v>3631</v>
+      </c>
+      <c r="L403" s="13" t="s">
         <v>3632</v>
       </c>
-      <c r="K403" s="13" t="s">
+      <c r="M403" s="13" t="s">
         <v>3633</v>
       </c>
-      <c r="L403" s="13" t="s">
+      <c r="N403" s="13" t="s">
         <v>3634</v>
       </c>
-      <c r="M403" s="13" t="s">
-        <v>3635</v>
-      </c>
-      <c r="N403" s="13" t="s">
-        <v>3636</v>
-      </c>
       <c r="O403" s="13" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="404" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B404" t="s">
         <v>3567</v>
       </c>
       <c r="C404" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D404" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E404" t="s">
         <v>3568</v>
       </c>
       <c r="F404" s="13" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="G404" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H404" s="13" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="I404" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J404" s="13" t="s">
+        <v>3635</v>
+      </c>
+      <c r="K404" s="13" t="s">
+        <v>3636</v>
+      </c>
+      <c r="L404" s="13" t="s">
         <v>3637</v>
       </c>
-      <c r="K404" s="13" t="s">
+      <c r="M404" s="13" t="s">
         <v>3638</v>
       </c>
-      <c r="L404" s="13" t="s">
+      <c r="N404" s="13" t="s">
         <v>3639</v>
       </c>
-      <c r="M404" s="13" t="s">
-        <v>3640</v>
-      </c>
-      <c r="N404" s="13" t="s">
-        <v>3641</v>
-      </c>
       <c r="O404" s="13" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="405" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B405" t="s">
         <v>3567</v>
       </c>
       <c r="C405" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D405" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E405" t="s">
         <v>3568</v>
       </c>
       <c r="F405" s="13" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H405" s="13" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="I405" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J405" s="13" t="s">
+        <v>3640</v>
+      </c>
+      <c r="K405" s="13" t="s">
+        <v>3641</v>
+      </c>
+      <c r="L405" s="13" t="s">
         <v>3642</v>
       </c>
-      <c r="K405" s="13" t="s">
+      <c r="M405" s="13" t="s">
         <v>3643</v>
       </c>
-      <c r="L405" s="13" t="s">
+      <c r="N405" s="13" t="s">
         <v>3644</v>
       </c>
-      <c r="M405" s="13" t="s">
-        <v>3645</v>
-      </c>
-      <c r="N405" s="13" t="s">
-        <v>3646</v>
-      </c>
       <c r="O405" s="13" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="406" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B406" t="s">
         <v>3567</v>
       </c>
       <c r="C406" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D406" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E406" t="s">
         <v>3568</v>
       </c>
       <c r="F406" s="13" t="s">
-        <v>3774</v>
+        <v>3771</v>
       </c>
       <c r="G406" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H406" s="13" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I406" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J406" s="13" t="s">
+        <v>3646</v>
+      </c>
+      <c r="K406" s="13" t="s">
         <v>3647</v>
       </c>
-      <c r="I406" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J406" s="13" t="s">
+      <c r="L406" s="13" t="s">
         <v>3648</v>
       </c>
-      <c r="K406" s="13" t="s">
+      <c r="M406" s="13" t="s">
         <v>3649</v>
       </c>
-      <c r="L406" s="13" t="s">
+      <c r="N406" s="13" t="s">
         <v>3650</v>
       </c>
-      <c r="M406" s="13" t="s">
-        <v>3651</v>
-      </c>
-      <c r="N406" s="13" t="s">
-        <v>3652</v>
-      </c>
       <c r="O406" s="13" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="407" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B407" t="s">
         <v>3567</v>
       </c>
       <c r="C407" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D407" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E407" t="s">
         <v>3568</v>
       </c>
       <c r="F407" s="13" t="s">
-        <v>3774</v>
+        <v>3771</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H407" s="13" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="I407" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J407" s="13" t="s">
+        <v>3651</v>
+      </c>
+      <c r="K407" s="13" t="s">
+        <v>3652</v>
+      </c>
+      <c r="L407" s="13" t="s">
         <v>3653</v>
       </c>
-      <c r="K407" s="13" t="s">
+      <c r="M407" s="13" t="s">
         <v>3654</v>
       </c>
-      <c r="L407" s="13" t="s">
-        <v>3655</v>
-      </c>
-      <c r="M407" s="13" t="s">
-        <v>3656</v>
-      </c>
       <c r="N407" s="13" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="O407" s="13" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B408" t="s">
         <v>3567</v>
       </c>
       <c r="C408" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D408" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E408" t="s">
         <v>3568</v>
       </c>
       <c r="F408" s="13" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="G408" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H408" s="13" t="s">
+        <v>3655</v>
+      </c>
+      <c r="I408" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J408" s="13" t="s">
+        <v>3656</v>
+      </c>
+      <c r="K408" s="13" t="s">
         <v>3657</v>
       </c>
-      <c r="I408" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J408" s="13" t="s">
+      <c r="L408" s="13" t="s">
+        <v>3639</v>
+      </c>
+      <c r="M408" s="13" t="s">
         <v>3658</v>
       </c>
-      <c r="K408" s="13" t="s">
+      <c r="N408" s="13" t="s">
         <v>3659</v>
       </c>
-      <c r="L408" s="13" t="s">
-        <v>3641</v>
-      </c>
-      <c r="M408" s="13" t="s">
-        <v>3660</v>
-      </c>
-      <c r="N408" s="13" t="s">
-        <v>3661</v>
-      </c>
       <c r="O408" s="13" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="409" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B409" t="s">
         <v>3567</v>
       </c>
       <c r="C409" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D409" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E409" t="s">
         <v>3568</v>
       </c>
       <c r="F409" s="13" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H409" s="13" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="I409" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J409" s="13" t="s">
+        <v>3660</v>
+      </c>
+      <c r="K409" s="13" t="s">
+        <v>3661</v>
+      </c>
+      <c r="L409" s="13" t="s">
         <v>3662</v>
       </c>
-      <c r="K409" s="13" t="s">
+      <c r="M409" s="13" t="s">
         <v>3663</v>
       </c>
-      <c r="L409" s="13" t="s">
+      <c r="N409" s="13" t="s">
         <v>3664</v>
       </c>
-      <c r="M409" s="13" t="s">
-        <v>3665</v>
-      </c>
-      <c r="N409" s="13" t="s">
-        <v>3666</v>
-      </c>
       <c r="O409" s="13" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="410" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B410" t="s">
         <v>3567</v>
       </c>
       <c r="C410" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D410" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E410" t="s">
         <v>3568</v>
       </c>
       <c r="F410" s="13" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="G410" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H410" s="13" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="I410" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J410" s="13" t="s">
+        <v>3665</v>
+      </c>
+      <c r="K410" s="13" t="s">
+        <v>3666</v>
+      </c>
+      <c r="L410" s="13" t="s">
         <v>3667</v>
       </c>
-      <c r="K410" s="13" t="s">
+      <c r="M410" s="13" t="s">
         <v>3668</v>
       </c>
-      <c r="L410" s="13" t="s">
+      <c r="N410" s="13" t="s">
         <v>3669</v>
       </c>
-      <c r="M410" s="13" t="s">
-        <v>3670</v>
-      </c>
-      <c r="N410" s="13" t="s">
-        <v>3671</v>
-      </c>
       <c r="O410" s="13" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="411" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B411" t="s">
         <v>3567</v>
       </c>
       <c r="C411" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D411" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E411" t="s">
         <v>3568</v>
       </c>
       <c r="F411" s="13" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H411" s="13" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="I411" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J411" s="13" t="s">
+        <v>3670</v>
+      </c>
+      <c r="K411" s="13" t="s">
+        <v>3671</v>
+      </c>
+      <c r="L411" s="13" t="s">
         <v>3672</v>
       </c>
-      <c r="K411" s="13" t="s">
+      <c r="M411" s="13" t="s">
         <v>3673</v>
       </c>
-      <c r="L411" s="13" t="s">
+      <c r="N411" s="13" t="s">
         <v>3674</v>
       </c>
-      <c r="M411" s="13" t="s">
-        <v>3675</v>
-      </c>
-      <c r="N411" s="13" t="s">
-        <v>3676</v>
-      </c>
       <c r="O411" s="13" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B412" t="s">
         <v>3567</v>
       </c>
       <c r="C412" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D412" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E412" t="s">
         <v>3568</v>
       </c>
       <c r="F412" s="13" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="G412" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H412" s="13" t="s">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="I412" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J412" s="13" t="s">
+        <v>3676</v>
+      </c>
+      <c r="K412" s="13" t="s">
+        <v>3677</v>
+      </c>
+      <c r="L412" s="13" t="s">
         <v>3678</v>
       </c>
-      <c r="K412" s="13" t="s">
+      <c r="M412" s="13" t="s">
         <v>3679</v>
       </c>
-      <c r="L412" s="13" t="s">
+      <c r="N412" s="13" t="s">
         <v>3680</v>
       </c>
-      <c r="M412" s="13" t="s">
-        <v>3681</v>
-      </c>
-      <c r="N412" s="13" t="s">
-        <v>3682</v>
-      </c>
       <c r="O412" s="13" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="413" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B413" t="s">
         <v>3567</v>
       </c>
       <c r="C413" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D413" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E413" t="s">
         <v>3568</v>
       </c>
       <c r="F413" s="13" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H413" s="13" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="I413" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J413" s="13" t="s">
+        <v>3681</v>
+      </c>
+      <c r="K413" s="13" t="s">
+        <v>3682</v>
+      </c>
+      <c r="L413" s="13" t="s">
         <v>3683</v>
       </c>
-      <c r="K413" s="13" t="s">
+      <c r="M413" s="13" t="s">
         <v>3684</v>
       </c>
-      <c r="L413" s="13" t="s">
+      <c r="N413" s="13" t="s">
         <v>3685</v>
       </c>
-      <c r="M413" s="13" t="s">
-        <v>3686</v>
-      </c>
-      <c r="N413" s="13" t="s">
-        <v>3687</v>
-      </c>
       <c r="O413" s="13" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="414" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B414" t="s">
         <v>3567</v>
       </c>
       <c r="C414" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D414" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E414" t="s">
         <v>3568</v>
       </c>
       <c r="F414" s="13" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="G414" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H414" s="13" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="I414" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J414" s="13" t="s">
+        <v>3686</v>
+      </c>
+      <c r="K414" s="13" t="s">
+        <v>3687</v>
+      </c>
+      <c r="L414" s="13" t="s">
         <v>3688</v>
       </c>
-      <c r="K414" s="13" t="s">
+      <c r="M414" s="13" t="s">
         <v>3689</v>
       </c>
-      <c r="L414" s="13" t="s">
+      <c r="N414" s="13" t="s">
         <v>3690</v>
       </c>
-      <c r="M414" s="13" t="s">
-        <v>3691</v>
-      </c>
-      <c r="N414" s="13" t="s">
-        <v>3692</v>
-      </c>
       <c r="O414" s="13" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="415" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B415" t="s">
         <v>3567</v>
       </c>
       <c r="C415" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D415" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E415" t="s">
         <v>3568</v>
       </c>
       <c r="F415" s="13" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H415" s="13" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="I415" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J415" s="13" t="s">
+        <v>3691</v>
+      </c>
+      <c r="K415" s="13" t="s">
+        <v>3692</v>
+      </c>
+      <c r="L415" s="13" t="s">
         <v>3693</v>
       </c>
-      <c r="K415" s="13" t="s">
+      <c r="M415" s="13" t="s">
         <v>3694</v>
       </c>
-      <c r="L415" s="13" t="s">
+      <c r="N415" s="13" t="s">
         <v>3695</v>
       </c>
-      <c r="M415" s="13" t="s">
-        <v>3696</v>
-      </c>
-      <c r="N415" s="13" t="s">
-        <v>3697</v>
-      </c>
       <c r="O415" s="13" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B416" t="s">
         <v>3567</v>
       </c>
       <c r="C416" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D416" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E416" t="s">
         <v>3568</v>
       </c>
       <c r="F416" s="13" t="s">
-        <v>3778</v>
+        <v>3775</v>
       </c>
       <c r="G416" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H416" s="13" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I416" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J416" s="13" t="s">
+        <v>3697</v>
+      </c>
+      <c r="K416" s="13" t="s">
         <v>3698</v>
       </c>
-      <c r="I416" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J416" s="13" t="s">
+      <c r="L416" s="13" t="s">
         <v>3699</v>
       </c>
-      <c r="K416" s="13" t="s">
+      <c r="M416" s="13" t="s">
         <v>3700</v>
       </c>
-      <c r="L416" s="13" t="s">
+      <c r="N416" s="13" t="s">
         <v>3701</v>
       </c>
-      <c r="M416" s="13" t="s">
-        <v>3702</v>
-      </c>
-      <c r="N416" s="13" t="s">
-        <v>3703</v>
-      </c>
       <c r="O416" s="13" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="417" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B417" t="s">
         <v>3567</v>
       </c>
       <c r="C417" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D417" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E417" t="s">
         <v>3568</v>
       </c>
       <c r="F417" s="13" t="s">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H417" s="13" t="s">
+        <v>3702</v>
+      </c>
+      <c r="I417" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J417" s="13" t="s">
+        <v>3703</v>
+      </c>
+      <c r="K417" s="13" t="s">
         <v>3704</v>
       </c>
-      <c r="I417" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J417" s="13" t="s">
+      <c r="L417" s="13" t="s">
         <v>3705</v>
       </c>
-      <c r="K417" s="13" t="s">
+      <c r="M417" s="13" t="s">
         <v>3706</v>
       </c>
-      <c r="L417" s="13" t="s">
+      <c r="N417" s="13" t="s">
         <v>3707</v>
       </c>
-      <c r="M417" s="13" t="s">
-        <v>3708</v>
-      </c>
-      <c r="N417" s="13" t="s">
-        <v>3709</v>
-      </c>
       <c r="O417" s="13" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="418" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B418" t="s">
         <v>3567</v>
       </c>
       <c r="C418" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D418" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E418" t="s">
         <v>3568</v>
       </c>
       <c r="F418" s="13" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="G418" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H418" s="13" t="s">
+        <v>3708</v>
+      </c>
+      <c r="I418" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J418" s="13" t="s">
+        <v>3709</v>
+      </c>
+      <c r="K418" s="13" t="s">
         <v>3710</v>
       </c>
-      <c r="I418" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J418" s="13" t="s">
+      <c r="L418" s="13" t="s">
         <v>3711</v>
       </c>
-      <c r="K418" s="13" t="s">
+      <c r="M418" s="13" t="s">
         <v>3712</v>
       </c>
-      <c r="L418" s="13" t="s">
+      <c r="N418" s="13" t="s">
         <v>3713</v>
       </c>
-      <c r="M418" s="13" t="s">
-        <v>3714</v>
-      </c>
-      <c r="N418" s="13" t="s">
-        <v>3715</v>
-      </c>
       <c r="O418" s="13" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="419" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B419" t="s">
         <v>3567</v>
       </c>
       <c r="C419" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D419" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E419" t="s">
         <v>3568</v>
       </c>
       <c r="F419" s="13" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H419" s="13" t="s">
+        <v>3708</v>
+      </c>
+      <c r="I419" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J419" s="13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="K419" s="13" t="s">
+        <v>3715</v>
+      </c>
+      <c r="L419" s="13" t="s">
+        <v>3802</v>
+      </c>
+      <c r="M419" s="13" t="s">
+        <v>3712</v>
+      </c>
+      <c r="N419" s="13" t="s">
+        <v>3677</v>
+      </c>
+      <c r="O419" s="13" t="s">
         <v>3710</v>
-      </c>
-      <c r="I419" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J419" s="13" t="s">
-        <v>3716</v>
-      </c>
-      <c r="K419" s="13" t="s">
-        <v>3717</v>
-      </c>
-      <c r="L419" s="13" t="s">
-        <v>3712</v>
-      </c>
-      <c r="M419" s="13" t="s">
-        <v>3714</v>
-      </c>
-      <c r="N419" s="13" t="s">
-        <v>3679</v>
-      </c>
-      <c r="O419" s="13" t="s">
-        <v>3712</v>
       </c>
     </row>
     <row r="420" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B420" t="s">
         <v>3567</v>
       </c>
       <c r="C420" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D420" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E420" t="s">
         <v>3568</v>
       </c>
       <c r="F420" s="13" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="G420" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H420" s="13" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="I420" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J420" s="13" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="K420" s="13" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="L420" s="13" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="M420" s="13" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="N420" s="13" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="O420" s="13" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B421" t="s">
         <v>3567</v>
       </c>
       <c r="C421" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D421" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E421" t="s">
+        <v>3718</v>
+      </c>
+      <c r="F421" s="13" t="s">
+        <v>3778</v>
+      </c>
+      <c r="G421" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H421" s="13" t="s">
+        <v>3719</v>
+      </c>
+      <c r="I421" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J421" s="13" t="s">
         <v>3720</v>
       </c>
-      <c r="F421" s="13" t="s">
-        <v>3781</v>
-      </c>
-      <c r="G421" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="H421" s="13" t="s">
+      <c r="K421" t="s">
+        <v>3682</v>
+      </c>
+      <c r="L421" t="s">
         <v>3721</v>
       </c>
-      <c r="I421" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J421" s="13" t="s">
+      <c r="M421" t="s">
         <v>3722</v>
       </c>
-      <c r="K421" t="s">
-        <v>3684</v>
-      </c>
-      <c r="L421" t="s">
+      <c r="N421" t="s">
         <v>3723</v>
       </c>
-      <c r="M421" t="s">
-        <v>3724</v>
-      </c>
-      <c r="N421" t="s">
-        <v>3725</v>
-      </c>
       <c r="O421" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B422" t="s">
         <v>3567</v>
       </c>
       <c r="C422" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D422" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E422" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="F422" s="13" t="s">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="G422" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H422" s="13" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="I422" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J422" s="13" t="s">
+        <v>3724</v>
+      </c>
+      <c r="K422" t="s">
+        <v>3725</v>
+      </c>
+      <c r="L422" t="s">
         <v>3726</v>
       </c>
-      <c r="K422" t="s">
+      <c r="M422" t="s">
         <v>3727</v>
       </c>
-      <c r="L422" t="s">
+      <c r="N422" t="s">
         <v>3728</v>
       </c>
-      <c r="M422" t="s">
-        <v>3729</v>
-      </c>
-      <c r="N422" t="s">
-        <v>3730</v>
-      </c>
       <c r="O422" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="423" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B423" t="s">
         <v>3567</v>
       </c>
       <c r="C423" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D423" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E423" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="F423" s="13" t="s">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H423" s="13" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="I423" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J423" s="13" t="s">
+        <v>3729</v>
+      </c>
+      <c r="K423" t="s">
+        <v>3730</v>
+      </c>
+      <c r="L423" t="s">
         <v>3731</v>
       </c>
-      <c r="K423" t="s">
+      <c r="M423" t="s">
         <v>3732</v>
       </c>
-      <c r="L423" t="s">
+      <c r="N423" t="s">
         <v>3733</v>
       </c>
-      <c r="M423" t="s">
-        <v>3734</v>
-      </c>
-      <c r="N423" t="s">
-        <v>3735</v>
-      </c>
       <c r="O423" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="424" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B424" t="s">
         <v>3567</v>
       </c>
       <c r="C424" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D424" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E424" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F424" s="13" t="s">
+        <v>3779</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H424" s="13" t="s">
+        <v>3735</v>
+      </c>
+      <c r="I424" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J424" s="13" t="s">
         <v>3736</v>
       </c>
-      <c r="F424" s="13" t="s">
-        <v>3782</v>
-      </c>
-      <c r="G424" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="H424" s="13" t="s">
+      <c r="K424" s="13" t="s">
         <v>3737</v>
       </c>
-      <c r="I424" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J424" s="13" t="s">
+      <c r="L424" s="13" t="s">
         <v>3738</v>
       </c>
-      <c r="K424" s="13" t="s">
+      <c r="M424" s="13" t="s">
         <v>3739</v>
       </c>
-      <c r="L424" s="13" t="s">
+      <c r="N424" s="13" t="s">
         <v>3740</v>
       </c>
-      <c r="M424" s="13" t="s">
-        <v>3741</v>
-      </c>
-      <c r="N424" s="13" t="s">
-        <v>3742</v>
-      </c>
       <c r="O424" s="13" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B425" t="s">
         <v>3567</v>
       </c>
       <c r="C425" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D425" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E425" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="F425" s="13" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H425" s="13" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="I425" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J425" s="13" t="s">
+        <v>3741</v>
+      </c>
+      <c r="K425" s="13" t="s">
+        <v>3742</v>
+      </c>
+      <c r="L425" s="13" t="s">
         <v>3743</v>
       </c>
-      <c r="K425" s="13" t="s">
+      <c r="M425" s="13" t="s">
         <v>3744</v>
       </c>
-      <c r="L425" s="13" t="s">
+      <c r="N425" s="13" t="s">
         <v>3745</v>
       </c>
-      <c r="M425" s="13" t="s">
-        <v>3746</v>
-      </c>
-      <c r="N425" s="13" t="s">
-        <v>3747</v>
-      </c>
       <c r="O425" s="13" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="426" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B426" t="s">
         <v>3567</v>
       </c>
       <c r="C426" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D426" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E426" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="F426" s="13" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="G426" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H426" s="13" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="I426" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J426" s="13" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K426" s="13" t="s">
+        <v>3747</v>
+      </c>
+      <c r="L426" s="13" t="s">
         <v>3748</v>
       </c>
-      <c r="K426" s="13" t="s">
+      <c r="M426" s="13" t="s">
         <v>3749</v>
       </c>
-      <c r="L426" s="13" t="s">
+      <c r="N426" s="13" t="s">
         <v>3750</v>
       </c>
-      <c r="M426" s="13" t="s">
-        <v>3751</v>
-      </c>
-      <c r="N426" s="13" t="s">
-        <v>3752</v>
-      </c>
       <c r="O426" s="13" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="427" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B427" t="s">
         <v>3567</v>
       </c>
       <c r="C427" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D427" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E427" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="F427" s="13" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H427" s="13" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="I427" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J427" s="13" t="s">
+        <v>3751</v>
+      </c>
+      <c r="K427" s="13" t="s">
+        <v>3752</v>
+      </c>
+      <c r="L427" s="13" t="s">
         <v>3753</v>
       </c>
-      <c r="K427" s="13" t="s">
+      <c r="M427" s="13" t="s">
         <v>3754</v>
       </c>
-      <c r="L427" s="13" t="s">
+      <c r="N427" s="13" t="s">
         <v>3755</v>
       </c>
-      <c r="M427" s="13" t="s">
-        <v>3756</v>
-      </c>
-      <c r="N427" s="13" t="s">
-        <v>3757</v>
-      </c>
       <c r="O427" s="13" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="428" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B428" t="s">
         <v>3567</v>
       </c>
       <c r="C428" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D428" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E428" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="F428" s="13" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="G428" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H428" s="13" t="s">
+        <v>3756</v>
+      </c>
+      <c r="I428" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J428" s="13" t="s">
+        <v>3757</v>
+      </c>
+      <c r="K428" s="13" t="s">
         <v>3758</v>
       </c>
-      <c r="I428" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J428" s="13" t="s">
+      <c r="L428" s="13" t="s">
         <v>3759</v>
       </c>
-      <c r="K428" s="13" t="s">
+      <c r="M428" s="13" t="s">
         <v>3760</v>
       </c>
-      <c r="L428" s="13" t="s">
+      <c r="N428" s="13" t="s">
         <v>3761</v>
       </c>
-      <c r="M428" s="13" t="s">
-        <v>3762</v>
-      </c>
-      <c r="N428" s="13" t="s">
-        <v>3763</v>
-      </c>
       <c r="O428" s="13" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="429" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B429" t="s">
         <v>3567</v>
       </c>
       <c r="C429" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="D429" t="s">
-        <v>3567</v>
+        <v>3796</v>
       </c>
       <c r="E429" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="F429" s="13" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H429" s="13" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="I429" s="13" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="J429" s="13" t="s">
+        <v>3762</v>
+      </c>
+      <c r="K429" s="13" t="s">
+        <v>3763</v>
+      </c>
+      <c r="L429" s="13" t="s">
         <v>3764</v>
       </c>
-      <c r="K429" s="13" t="s">
+      <c r="M429" s="13" t="s">
         <v>3765</v>
       </c>
-      <c r="L429" s="13" t="s">
+      <c r="N429" s="13" t="s">
         <v>3766</v>
       </c>
-      <c r="M429" s="13" t="s">
-        <v>3767</v>
-      </c>
-      <c r="N429" s="13" t="s">
-        <v>3768</v>
-      </c>
       <c r="O429" s="13" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="430" spans="1:15" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="B430" t="s">
         <v>3567</v>
       </c>
       <c r="C430" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D430" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E430" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H430" s="13" t="s">
+        <v>3808</v>
+      </c>
+      <c r="I430" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J430" s="13" t="s">
+        <v>3785</v>
+      </c>
+      <c r="K430" s="13" t="s">
+        <v>3784</v>
+      </c>
+      <c r="L430" s="13" t="s">
+        <v>3786</v>
+      </c>
+      <c r="M430" s="13" t="s">
+        <v>3787</v>
+      </c>
+      <c r="N430" s="13" t="s">
+        <v>3788</v>
+      </c>
+      <c r="O430" s="13" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" ht="112.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A431" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B431" t="s">
         <v>3567</v>
       </c>
-      <c r="D430" t="s">
+      <c r="C431" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="E431" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F431" s="13" t="s">
+        <v>3806</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H431" s="14" t="s">
+        <v>3807</v>
+      </c>
+      <c r="I431" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J431" s="13" t="s">
+        <v>3805</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A432" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B432" t="s">
         <v>3567</v>
       </c>
-      <c r="E430" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>3793</v>
-      </c>
-      <c r="G430" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="H430" s="13" t="s">
-        <v>3792</v>
-      </c>
-      <c r="I430" s="13" t="s">
-        <v>3736</v>
-      </c>
-      <c r="J430" s="13" t="s">
-        <v>3788</v>
-      </c>
-      <c r="K430" s="13" t="s">
-        <v>3787</v>
-      </c>
-      <c r="L430" s="13" t="s">
-        <v>3789</v>
-      </c>
-      <c r="M430" s="13" t="s">
-        <v>3790</v>
-      </c>
-      <c r="N430" s="13" t="s">
-        <v>3791</v>
-      </c>
-      <c r="O430" s="13" t="s">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F431" s="14"/>
+      <c r="C432" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D432" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="E432" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H432" s="13" t="s">
+        <v>3809</v>
+      </c>
+      <c r="I432" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J432" s="13" t="s">
+        <v>3809</v>
+      </c>
+      <c r="K432" s="13" t="s">
+        <v>3812</v>
+      </c>
+      <c r="L432" s="13" t="s">
+        <v>3811</v>
+      </c>
+      <c r="M432" s="13" t="s">
+        <v>3810</v>
+      </c>
+      <c r="N432" s="13" t="s">
+        <v>3813</v>
+      </c>
+      <c r="O432" s="13" t="s">
+        <v>3810</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
